--- a/CashFlow/ZEN_cashflow.xlsx
+++ b/CashFlow/ZEN_cashflow.xlsx
@@ -701,19 +701,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-20804000.0</v>
+        <v>65000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-26671000.0</v>
+        <v>88000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-24322000.0</v>
+        <v>77156000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-4800000.0</v>
+        <v>69986000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3406000.0</v>
+        <v>41869000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>13179000.0</v>
